--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H2">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I2">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J2">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.11008</v>
+        <v>0.037775</v>
       </c>
       <c r="N2">
-        <v>0.33024</v>
+        <v>0.113325</v>
       </c>
       <c r="O2">
-        <v>0.06903792193848049</v>
+        <v>0.05650904967560589</v>
       </c>
       <c r="P2">
-        <v>0.06903792193848049</v>
+        <v>0.0565090496756059</v>
       </c>
       <c r="Q2">
-        <v>2.522611406506666</v>
+        <v>3.044684252658333</v>
       </c>
       <c r="R2">
-        <v>22.70350265856</v>
+        <v>27.402158273925</v>
       </c>
       <c r="S2">
-        <v>0.003838508708241158</v>
+        <v>0.00984415722337207</v>
       </c>
       <c r="T2">
-        <v>0.003838508708241158</v>
+        <v>0.009844157223372072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H3">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I3">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J3">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.484406</v>
+        <v>0.11008</v>
       </c>
       <c r="N3">
-        <v>4.453218</v>
+        <v>0.33024</v>
       </c>
       <c r="O3">
-        <v>0.9309620780615195</v>
+        <v>0.1646728309276161</v>
       </c>
       <c r="P3">
-        <v>0.9309620780615195</v>
+        <v>0.1646728309276161</v>
       </c>
       <c r="Q3">
-        <v>34.01689232818799</v>
+        <v>8.872504104106666</v>
       </c>
       <c r="R3">
-        <v>306.152030953692</v>
+        <v>79.85253693696001</v>
       </c>
       <c r="S3">
-        <v>0.05176149489067427</v>
+        <v>0.0286868253381548</v>
       </c>
       <c r="T3">
-        <v>0.05176149489067427</v>
+        <v>0.0286868253381548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.34790300000002</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H4">
-        <v>280.043709</v>
+        <v>241.801529</v>
       </c>
       <c r="I4">
-        <v>0.2264839609178003</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J4">
-        <v>0.2264839609178003</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.11008</v>
+        <v>0.520622</v>
       </c>
       <c r="N4">
-        <v>0.33024</v>
+        <v>1.561866</v>
       </c>
       <c r="O4">
-        <v>0.06903792193848049</v>
+        <v>0.7788181193967781</v>
       </c>
       <c r="P4">
-        <v>0.06903792193848049</v>
+        <v>0.7788181193967781</v>
       </c>
       <c r="Q4">
-        <v>10.27573716224</v>
+        <v>41.96239854367933</v>
       </c>
       <c r="R4">
-        <v>92.48163446016001</v>
+        <v>377.661586893114</v>
       </c>
       <c r="S4">
-        <v>0.01563598201416096</v>
+        <v>0.1356739860210831</v>
       </c>
       <c r="T4">
-        <v>0.01563598201416096</v>
+        <v>0.1356739860210831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H5">
         <v>280.043709</v>
       </c>
       <c r="I5">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J5">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.484406</v>
+        <v>0.037775</v>
       </c>
       <c r="N5">
-        <v>4.453218</v>
+        <v>0.113325</v>
       </c>
       <c r="O5">
-        <v>0.9309620780615195</v>
+        <v>0.05650904967560589</v>
       </c>
       <c r="P5">
-        <v>0.9309620780615195</v>
+        <v>0.0565090496756059</v>
       </c>
       <c r="Q5">
-        <v>138.566187300618</v>
+        <v>3.526217035824999</v>
       </c>
       <c r="R5">
-        <v>1247.095685705562</v>
+        <v>31.735953322425</v>
       </c>
       <c r="S5">
-        <v>0.2108479789036393</v>
+        <v>0.01140106231839525</v>
       </c>
       <c r="T5">
-        <v>0.2108479789036393</v>
+        <v>0.01140106231839525</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.22922533333333</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H6">
-        <v>240.687676</v>
+        <v>280.043709</v>
       </c>
       <c r="I6">
-        <v>0.194654964395505</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J6">
-        <v>0.194654964395505</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -815,27 +815,27 @@
         <v>0.33024</v>
       </c>
       <c r="O6">
-        <v>0.06903792193848049</v>
+        <v>0.1646728309276161</v>
       </c>
       <c r="P6">
-        <v>0.06903792193848049</v>
+        <v>0.1646728309276161</v>
       </c>
       <c r="Q6">
-        <v>8.831633124693333</v>
+        <v>10.27573716224</v>
       </c>
       <c r="R6">
-        <v>79.48469812223999</v>
+        <v>92.48163446015998</v>
       </c>
       <c r="S6">
-        <v>0.01343857423687458</v>
+        <v>0.03322379722062075</v>
       </c>
       <c r="T6">
-        <v>0.01343857423687457</v>
+        <v>0.03322379722062075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.22922533333333</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H7">
-        <v>240.687676</v>
+        <v>280.043709</v>
       </c>
       <c r="I7">
-        <v>0.194654964395505</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J7">
-        <v>0.194654964395505</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.484406</v>
+        <v>0.520622</v>
       </c>
       <c r="N7">
-        <v>4.453218</v>
+        <v>1.561866</v>
       </c>
       <c r="O7">
-        <v>0.9309620780615195</v>
+        <v>0.7788181193967781</v>
       </c>
       <c r="P7">
-        <v>0.9309620780615195</v>
+        <v>0.7788181193967781</v>
       </c>
       <c r="Q7">
-        <v>119.092743460152</v>
+        <v>48.59897195566599</v>
       </c>
       <c r="R7">
-        <v>1071.834691141368</v>
+        <v>437.390747600994</v>
       </c>
       <c r="S7">
-        <v>0.1812163901586305</v>
+        <v>0.1571315384865009</v>
       </c>
       <c r="T7">
-        <v>0.1812163901586304</v>
+        <v>0.1571315384865009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>77.86108299999999</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H8">
-        <v>233.583249</v>
+        <v>246.865982</v>
       </c>
       <c r="I8">
-        <v>0.1889092942900882</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J8">
-        <v>0.1889092942900881</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.11008</v>
+        <v>0.037775</v>
       </c>
       <c r="N8">
-        <v>0.33024</v>
+        <v>0.113325</v>
       </c>
       <c r="O8">
-        <v>0.06903792193848049</v>
+        <v>0.05650904967560589</v>
       </c>
       <c r="P8">
-        <v>0.06903792193848049</v>
+        <v>0.0565090496756059</v>
       </c>
       <c r="Q8">
-        <v>8.570948016639999</v>
+        <v>3.108454156683333</v>
       </c>
       <c r="R8">
-        <v>77.13853214975998</v>
+        <v>27.97608741015</v>
       </c>
       <c r="S8">
-        <v>0.01304190511265254</v>
+        <v>0.01005033983846371</v>
       </c>
       <c r="T8">
-        <v>0.01304190511265254</v>
+        <v>0.01005033983846372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>77.86108299999999</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H9">
-        <v>233.583249</v>
+        <v>246.865982</v>
       </c>
       <c r="I9">
-        <v>0.1889092942900882</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J9">
-        <v>0.1889092942900881</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.484406</v>
+        <v>0.11008</v>
       </c>
       <c r="N9">
-        <v>4.453218</v>
+        <v>0.33024</v>
       </c>
       <c r="O9">
-        <v>0.9309620780615195</v>
+        <v>0.1646728309276161</v>
       </c>
       <c r="P9">
-        <v>0.9309620780615195</v>
+        <v>0.1646728309276161</v>
       </c>
       <c r="Q9">
-        <v>115.577458771698</v>
+        <v>9.058335766186666</v>
       </c>
       <c r="R9">
-        <v>1040.197128945282</v>
+        <v>81.52502189567998</v>
       </c>
       <c r="S9">
-        <v>0.1758673891774356</v>
+        <v>0.02928766140087586</v>
       </c>
       <c r="T9">
-        <v>0.1758673891774356</v>
+        <v>0.02928766140087586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.835931</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H10">
-        <v>170.507793</v>
+        <v>246.865982</v>
       </c>
       <c r="I10">
-        <v>0.1378973320410935</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J10">
-        <v>0.1378973320410935</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.11008</v>
+        <v>0.520622</v>
       </c>
       <c r="N10">
-        <v>0.33024</v>
+        <v>1.561866</v>
       </c>
       <c r="O10">
-        <v>0.06903792193848049</v>
+        <v>0.7788181193967781</v>
       </c>
       <c r="P10">
-        <v>0.06903792193848049</v>
+        <v>0.7788181193967781</v>
       </c>
       <c r="Q10">
-        <v>6.256499284479999</v>
+        <v>42.84128709360133</v>
       </c>
       <c r="R10">
-        <v>56.30849356032</v>
+        <v>385.5715838424119</v>
       </c>
       <c r="S10">
-        <v>0.00952014524497774</v>
+        <v>0.1385156327566024</v>
       </c>
       <c r="T10">
-        <v>0.00952014524497774</v>
+        <v>0.1385156327566024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.835931</v>
+        <v>45.42364</v>
       </c>
       <c r="H11">
-        <v>170.507793</v>
+        <v>136.27092</v>
       </c>
       <c r="I11">
-        <v>0.1378973320410935</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J11">
-        <v>0.1378973320410935</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.484406</v>
+        <v>0.037775</v>
       </c>
       <c r="N11">
-        <v>4.453218</v>
+        <v>0.113325</v>
       </c>
       <c r="O11">
-        <v>0.9309620780615195</v>
+        <v>0.05650904967560589</v>
       </c>
       <c r="P11">
-        <v>0.9309620780615195</v>
+        <v>0.0565090496756059</v>
       </c>
       <c r="Q11">
-        <v>84.36759699198599</v>
+        <v>1.715878001</v>
       </c>
       <c r="R11">
-        <v>759.308372927874</v>
+        <v>15.442902009</v>
       </c>
       <c r="S11">
-        <v>0.1283771867961158</v>
+        <v>0.005547824147354987</v>
       </c>
       <c r="T11">
-        <v>0.1283771867961158</v>
+        <v>0.005547824147354988</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.97090133333333</v>
+        <v>45.42364</v>
       </c>
       <c r="H12">
-        <v>242.912704</v>
+        <v>136.27092</v>
       </c>
       <c r="I12">
-        <v>0.1964544447565976</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J12">
-        <v>0.1964544447565975</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,27 +1187,27 @@
         <v>0.33024</v>
       </c>
       <c r="O12">
-        <v>0.06903792193848049</v>
+        <v>0.1646728309276161</v>
       </c>
       <c r="P12">
-        <v>0.06903792193848049</v>
+        <v>0.1646728309276161</v>
       </c>
       <c r="Q12">
-        <v>8.913276818773333</v>
+        <v>5.0002342912</v>
       </c>
       <c r="R12">
-        <v>80.21949136895999</v>
+        <v>45.00210862079999</v>
       </c>
       <c r="S12">
-        <v>0.01356280662157351</v>
+        <v>0.01616689562252381</v>
       </c>
       <c r="T12">
-        <v>0.01356280662157351</v>
+        <v>0.01616689562252381</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.97090133333333</v>
+        <v>45.42364</v>
       </c>
       <c r="H13">
-        <v>242.912704</v>
+        <v>136.27092</v>
       </c>
       <c r="I13">
-        <v>0.1964544447565976</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J13">
-        <v>0.1964544447565975</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.484406</v>
+        <v>0.520622</v>
       </c>
       <c r="N13">
-        <v>4.453218</v>
+        <v>1.561866</v>
       </c>
       <c r="O13">
-        <v>0.9309620780615195</v>
+        <v>0.7788181193967781</v>
       </c>
       <c r="P13">
-        <v>0.9309620780615195</v>
+        <v>0.7788181193967781</v>
       </c>
       <c r="Q13">
-        <v>120.193691764608</v>
+        <v>23.64854630408</v>
       </c>
       <c r="R13">
-        <v>1081.743225881472</v>
+        <v>212.83691673672</v>
       </c>
       <c r="S13">
-        <v>0.1828916381350241</v>
+        <v>0.07646113311037059</v>
       </c>
       <c r="T13">
-        <v>0.182891638135024</v>
+        <v>0.07646113311037059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>63.60851399999999</v>
+      </c>
+      <c r="H14">
+        <v>190.825542</v>
+      </c>
+      <c r="I14">
+        <v>0.1374795175462663</v>
+      </c>
+      <c r="J14">
+        <v>0.1374795175462663</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.037775</v>
+      </c>
+      <c r="N14">
+        <v>0.113325</v>
+      </c>
+      <c r="O14">
+        <v>0.05650904967560589</v>
+      </c>
+      <c r="P14">
+        <v>0.0565090496756059</v>
+      </c>
+      <c r="Q14">
+        <v>2.402811616349999</v>
+      </c>
+      <c r="R14">
+        <v>21.62530454715</v>
+      </c>
+      <c r="S14">
+        <v>0.007768836886400293</v>
+      </c>
+      <c r="T14">
+        <v>0.007768836886400294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>63.60851399999999</v>
+      </c>
+      <c r="H15">
+        <v>190.825542</v>
+      </c>
+      <c r="I15">
+        <v>0.1374795175462663</v>
+      </c>
+      <c r="J15">
+        <v>0.1374795175462663</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.11008</v>
+      </c>
+      <c r="N15">
+        <v>0.33024</v>
+      </c>
+      <c r="O15">
+        <v>0.1646728309276161</v>
+      </c>
+      <c r="P15">
+        <v>0.1646728309276161</v>
+      </c>
+      <c r="Q15">
+        <v>7.002025221119999</v>
+      </c>
+      <c r="R15">
+        <v>63.01822699007999</v>
+      </c>
+      <c r="S15">
+        <v>0.02263914134890653</v>
+      </c>
+      <c r="T15">
+        <v>0.02263914134890653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>63.60851399999999</v>
+      </c>
+      <c r="H16">
+        <v>190.825542</v>
+      </c>
+      <c r="I16">
+        <v>0.1374795175462663</v>
+      </c>
+      <c r="J16">
+        <v>0.1374795175462663</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.520622</v>
+      </c>
+      <c r="N16">
+        <v>1.561866</v>
+      </c>
+      <c r="O16">
+        <v>0.7788181193967781</v>
+      </c>
+      <c r="P16">
+        <v>0.7788181193967781</v>
+      </c>
+      <c r="Q16">
+        <v>33.115991775708</v>
+      </c>
+      <c r="R16">
+        <v>298.043925981372</v>
+      </c>
+      <c r="S16">
+        <v>0.1070715393109595</v>
+      </c>
+      <c r="T16">
+        <v>0.1070715393109595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>97.40706899999999</v>
+      </c>
+      <c r="H17">
+        <v>292.221207</v>
+      </c>
+      <c r="I17">
+        <v>0.2105296289694155</v>
+      </c>
+      <c r="J17">
+        <v>0.2105296289694155</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.037775</v>
+      </c>
+      <c r="N17">
+        <v>0.113325</v>
+      </c>
+      <c r="O17">
+        <v>0.05650904967560589</v>
+      </c>
+      <c r="P17">
+        <v>0.0565090496756059</v>
+      </c>
+      <c r="Q17">
+        <v>3.679552031474999</v>
+      </c>
+      <c r="R17">
+        <v>33.115968283275</v>
+      </c>
+      <c r="S17">
+        <v>0.01189682926161958</v>
+      </c>
+      <c r="T17">
+        <v>0.01189682926161958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>97.40706899999999</v>
+      </c>
+      <c r="H18">
+        <v>292.221207</v>
+      </c>
+      <c r="I18">
+        <v>0.2105296289694155</v>
+      </c>
+      <c r="J18">
+        <v>0.2105296289694155</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.11008</v>
+      </c>
+      <c r="N18">
+        <v>0.33024</v>
+      </c>
+      <c r="O18">
+        <v>0.1646728309276161</v>
+      </c>
+      <c r="P18">
+        <v>0.1646728309276161</v>
+      </c>
+      <c r="Q18">
+        <v>10.72257015552</v>
+      </c>
+      <c r="R18">
+        <v>96.50313139967999</v>
+      </c>
+      <c r="S18">
+        <v>0.0346685099965343</v>
+      </c>
+      <c r="T18">
+        <v>0.0346685099965343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>97.40706899999999</v>
+      </c>
+      <c r="H19">
+        <v>292.221207</v>
+      </c>
+      <c r="I19">
+        <v>0.2105296289694155</v>
+      </c>
+      <c r="J19">
+        <v>0.2105296289694155</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.520622</v>
+      </c>
+      <c r="N19">
+        <v>1.561866</v>
+      </c>
+      <c r="O19">
+        <v>0.7788181193967781</v>
+      </c>
+      <c r="P19">
+        <v>0.7788181193967781</v>
+      </c>
+      <c r="Q19">
+        <v>50.712263076918</v>
+      </c>
+      <c r="R19">
+        <v>456.410367692262</v>
+      </c>
+      <c r="S19">
+        <v>0.1639642897112616</v>
+      </c>
+      <c r="T19">
+        <v>0.1639642897112616</v>
       </c>
     </row>
   </sheetData>
